--- a/Excel-XLSX/UN-BHS.xlsx
+++ b/Excel-XLSX/UN-BHS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,241 @@
     <t>1</t>
   </si>
   <si>
-    <t>rS7jE1</t>
+    <t>e4rQ4N</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>KHM</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>723</t>
+  </si>
+  <si>
+    <t>31</t>
   </si>
   <si>
     <t>1992</t>
@@ -105,28 +339,13 @@
     <t>HTI</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>BHS</t>
-  </si>
-  <si>
     <t>374</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>980</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>33</t>
   </si>
   <si>
     <t>1993</t>
@@ -138,85 +357,43 @@
     <t>363</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
   </si>
   <si>
     <t>112</t>
@@ -228,67 +405,49 @@
     <t>LKA</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
   </si>
   <si>
     <t>262</t>
@@ -300,118 +459,7 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CAM</t>
-  </si>
-  <si>
-    <t>KHM</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>JAM</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>2022</t>
+    <t>UNK</t>
   </si>
 </sst>
 </file>
@@ -796,7 +844,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -919,25 +967,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -951,10 +999,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -981,31 +1029,31 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -1019,22 +1067,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1049,31 +1097,31 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -1087,19 +1135,19 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>44</v>
@@ -1117,31 +1165,31 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1155,19 +1203,19 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>44</v>
@@ -1185,31 +1233,31 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
@@ -1223,22 +1271,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1253,31 +1301,31 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1291,22 +1339,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1321,31 +1369,31 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1359,22 +1407,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1389,31 +1437,31 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1427,22 +1475,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1457,31 +1505,31 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1495,22 +1543,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1528,28 +1576,28 @@
         <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1563,22 +1611,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1593,31 +1641,31 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13">
@@ -1631,22 +1679,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1661,31 +1709,31 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14">
@@ -1702,58 +1750,58 @@
         <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O14" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15">
@@ -1767,61 +1815,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -1835,22 +1883,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1865,31 +1913,31 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -1903,22 +1951,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -1933,31 +1981,31 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -1971,22 +2019,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2001,31 +2049,31 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2039,22 +2087,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2069,31 +2117,31 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -2107,61 +2155,61 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="O20" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
@@ -2175,22 +2223,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2205,31 +2253,31 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -2246,19 +2294,19 @@
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2273,31 +2321,31 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2311,22 +2359,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -2341,31 +2389,31 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
@@ -2379,22 +2427,22 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>29</v>
@@ -2409,31 +2457,31 @@
         <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V24" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2447,22 +2495,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2477,31 +2525,31 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -2515,22 +2563,22 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>29</v>
@@ -2545,31 +2593,31 @@
         <v>31</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V26" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
@@ -2583,22 +2631,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -2613,31 +2661,31 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V27" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -2651,22 +2699,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -2684,28 +2732,28 @@
         <v>33</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -2719,22 +2767,22 @@
         <v>22</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -2749,31 +2797,31 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -2790,19 +2838,19 @@
         <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -2817,31 +2865,31 @@
         <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O30" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -2858,58 +2906,58 @@
         <v>99</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="U31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32">
@@ -2923,61 +2971,61 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T32" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="U32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33">
@@ -2991,22 +3039,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I33" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>29</v>
@@ -3021,31 +3069,31 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>33</v>
+        <v>107</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V33" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
@@ -3059,23 +3107,23 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I34" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
       </c>
@@ -3089,31 +3137,31 @@
         <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V34" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
@@ -3127,22 +3175,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3157,31 +3205,31 @@
         <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
@@ -3195,22 +3243,22 @@
         <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>29</v>
@@ -3225,31 +3273,31 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V36" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -3263,22 +3311,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3293,31 +3341,31 @@
         <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -3331,22 +3379,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="I38" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3361,31 +3409,31 @@
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V38" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
@@ -3399,22 +3447,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3429,31 +3477,31 @@
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V39" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
@@ -3467,22 +3515,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3497,31 +3545,31 @@
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
@@ -3535,22 +3583,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -3565,31 +3613,31 @@
         <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V41" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
@@ -3603,22 +3651,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -3633,31 +3681,31 @@
         <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="P42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
@@ -3671,22 +3719,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -3701,31 +3749,31 @@
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V43" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
@@ -3739,22 +3787,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -3769,31 +3817,31 @@
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45">
@@ -3807,22 +3855,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>29</v>
@@ -3837,31 +3885,31 @@
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
@@ -3875,22 +3923,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
@@ -3908,28 +3956,28 @@
         <v>33</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -3943,22 +3991,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>29</v>
@@ -3973,31 +4021,31 @@
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
@@ -4011,10 +4059,10 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>121</v>
@@ -4041,31 +4089,847 @@
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="O48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U48" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="P48" s="2" t="s">
+      <c r="O49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="P50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U50" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V50" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="P51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V52" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V54" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V55" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S48" s="2" t="s">
+      <c r="P56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U56" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V56" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T48" s="2" t="s">
+      <c r="P57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U48" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V48" s="2" t="s">
+      <c r="P58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O59" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BHS.xlsx
+++ b/Excel-XLSX/UN-BHS.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>e4rQ4N</t>
+    <t>xeU9S4</t>
   </si>
   <si>
     <t>2020</t>
@@ -177,135 +177,135 @@
     <t>8</t>
   </si>
   <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>COL</t>
+    <t>2019</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>47</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>47</t>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>58</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>58</t>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>78</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>78</t>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>98</t>
+    <t>2000</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>2000</t>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>27</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>2011</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>2011</t>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
+    <t>75</t>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
     <t>23</t>
   </si>
   <si>
+    <t>2016</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
-    <t>2016</t>
+    <t>2017</t>
   </si>
   <si>
     <t>25</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
@@ -315,12 +315,12 @@
     <t>29</t>
   </si>
   <si>
+    <t>723</t>
+  </si>
+  <si>
     <t>30</t>
   </si>
   <si>
-    <t>723</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -345,18 +345,18 @@
     <t>980</t>
   </si>
   <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
     <t>33</t>
   </si>
   <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -378,16 +378,25 @@
     <t>43</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>JAM</t>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
   </si>
   <si>
     <t>48</t>
@@ -396,13 +405,16 @@
     <t>49</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
+    <t>159</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
   </si>
   <si>
     <t>50</t>
@@ -411,18 +423,6 @@
     <t>51</t>
   </si>
   <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
     <t>52</t>
   </si>
   <si>
@@ -435,19 +435,19 @@
     <t>55</t>
   </si>
   <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
     <t>56</t>
   </si>
   <si>
     <t>57</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
   </si>
   <si>
     <t>262</t>
@@ -844,7 +844,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -984,8 +984,8 @@
       <c r="U2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>34</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -1188,8 +1188,8 @@
       <c r="U5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>34</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1256,8 +1256,8 @@
       <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>34</v>
+      <c r="V6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1324,8 +1324,8 @@
       <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>34</v>
+      <c r="V7" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1410,19 +1410,19 @@
         <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1475,22 +1475,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1528,8 +1528,8 @@
       <c r="U10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>34</v>
+      <c r="V10" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1543,22 +1543,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1596,8 +1596,8 @@
       <c r="U11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>34</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1614,19 +1614,19 @@
         <v>60</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1641,7 +1641,7 @@
         <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>32</v>
@@ -1664,8 +1664,8 @@
       <c r="U12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>34</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1679,22 +1679,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1709,7 +1709,7 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>32</v>
@@ -1732,8 +1732,8 @@
       <c r="U13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>34</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1747,22 +1747,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1777,7 +1777,7 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>32</v>
@@ -1800,8 +1800,8 @@
       <c r="U14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>34</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1815,22 +1815,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1845,7 +1845,7 @@
         <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>32</v>
@@ -1868,8 +1868,8 @@
       <c r="U15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>34</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1883,22 +1883,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1913,7 +1913,7 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>32</v>
@@ -1936,8 +1936,8 @@
       <c r="U16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>34</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1951,38 +1951,38 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="O17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2004,8 +2004,8 @@
       <c r="U17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>34</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2019,22 +2019,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2049,7 +2049,7 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>32</v>
@@ -2072,8 +2072,8 @@
       <c r="U18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>34</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2087,38 +2087,38 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="O19" s="2" t="s">
         <v>32</v>
       </c>
@@ -2140,8 +2140,8 @@
       <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>34</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2155,22 +2155,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2185,7 +2185,7 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>32</v>
@@ -2208,8 +2208,8 @@
       <c r="U20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>34</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21">
@@ -2223,22 +2223,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2253,10 +2253,10 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>32</v>
@@ -2276,8 +2276,8 @@
       <c r="U21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>34</v>
+      <c r="V21" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22">
@@ -2294,37 +2294,37 @@
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="O22" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>32</v>
@@ -2339,13 +2339,13 @@
         <v>32</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V22" s="1" t="s">
-        <v>34</v>
+      <c r="V22" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="23">
@@ -2359,61 +2359,61 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="U23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>34</v>
+      <c r="V23" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24">
@@ -2430,38 +2430,38 @@
         <v>91</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="P24" s="2" t="s">
         <v>32</v>
       </c>
@@ -2475,13 +2475,13 @@
         <v>32</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V24" s="1" t="s">
-        <v>34</v>
+      <c r="V24" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="25">
@@ -2495,22 +2495,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2525,10 +2525,10 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>32</v>
@@ -2548,8 +2548,8 @@
       <c r="U25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>34</v>
+      <c r="V25" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -2563,41 +2563,41 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="P26" s="2" t="s">
         <v>32</v>
       </c>
@@ -2616,8 +2616,8 @@
       <c r="U26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>34</v>
+      <c r="V26" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2634,19 @@
         <v>96</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -2661,10 +2661,10 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>32</v>
@@ -2684,8 +2684,8 @@
       <c r="U27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>34</v>
+      <c r="V27" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -2699,22 +2699,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -2732,7 +2732,7 @@
         <v>33</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>32</v>
@@ -2752,8 +2752,8 @@
       <c r="U28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V28" s="1" t="s">
-        <v>34</v>
+      <c r="V28" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -2770,19 +2770,19 @@
         <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>29</v>
@@ -2797,11 +2797,11 @@
         <v>31</v>
       </c>
       <c r="N29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O29" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P29" s="2" t="s">
         <v>32</v>
       </c>
@@ -2820,8 +2820,8 @@
       <c r="U29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>34</v>
+      <c r="V29" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -2838,19 +2838,19 @@
         <v>98</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -2868,7 +2868,7 @@
         <v>32</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>32</v>
@@ -2883,13 +2883,13 @@
         <v>32</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>34</v>
+      <c r="V30" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31">
@@ -2903,22 +2903,22 @@
         <v>22</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -2951,7 +2951,7 @@
         <v>32</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>34</v>
@@ -2974,19 +2974,19 @@
         <v>101</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3001,13 +3001,13 @@
         <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>32</v>
@@ -3019,7 +3019,7 @@
         <v>32</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>34</v>
@@ -3042,7 +3042,7 @@
         <v>25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>103</v>
@@ -3069,13 +3069,13 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>32</v>
@@ -3092,8 +3092,8 @@
       <c r="U33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>34</v>
+      <c r="V33" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34">
@@ -3107,10 +3107,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>103</v>
@@ -3137,13 +3137,13 @@
         <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>32</v>
@@ -3160,8 +3160,8 @@
       <c r="U34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>34</v>
+      <c r="V34" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -3178,7 +3178,7 @@
         <v>113</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>103</v>
@@ -3228,8 +3228,8 @@
       <c r="U35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>34</v>
+      <c r="V35" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36">
@@ -3246,7 +3246,7 @@
         <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>103</v>
@@ -3296,8 +3296,8 @@
       <c r="U36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V36" s="1" t="s">
-        <v>34</v>
+      <c r="V36" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="37">
@@ -3311,10 +3311,10 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>103</v>
@@ -3344,7 +3344,7 @@
         <v>32</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>32</v>
@@ -3364,8 +3364,8 @@
       <c r="U37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>34</v>
+      <c r="V37" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38">
@@ -3382,7 +3382,7 @@
         <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>103</v>
@@ -3432,8 +3432,8 @@
       <c r="U38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V38" s="1" t="s">
-        <v>34</v>
+      <c r="V38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
@@ -3450,7 +3450,7 @@
         <v>115</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>103</v>
@@ -3500,8 +3500,8 @@
       <c r="U39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V39" s="1" t="s">
-        <v>34</v>
+      <c r="V39" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40">
@@ -3518,7 +3518,7 @@
         <v>48</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>103</v>
@@ -3568,8 +3568,8 @@
       <c r="U40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V40" s="1" t="s">
-        <v>34</v>
+      <c r="V40" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="41">
@@ -3586,7 +3586,7 @@
         <v>116</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>103</v>
@@ -3636,8 +3636,8 @@
       <c r="U41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V41" s="1" t="s">
-        <v>34</v>
+      <c r="V41" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="42">
@@ -3654,7 +3654,7 @@
         <v>117</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>103</v>
@@ -3704,8 +3704,8 @@
       <c r="U42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V42" s="1" t="s">
-        <v>34</v>
+      <c r="V42" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -3722,7 +3722,7 @@
         <v>118</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>103</v>
@@ -3772,8 +3772,8 @@
       <c r="U43" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V43" s="1" t="s">
-        <v>34</v>
+      <c r="V43" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="44">
@@ -3790,7 +3790,7 @@
         <v>119</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>103</v>
@@ -3855,22 +3855,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>29</v>
@@ -3885,10 +3885,10 @@
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>32</v>
@@ -3923,22 +3923,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="I46" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
@@ -3976,8 +3976,8 @@
       <c r="U46" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V46" s="1" t="s">
-        <v>34</v>
+      <c r="V46" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="47">
@@ -3991,22 +3991,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="I47" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>29</v>
@@ -4044,8 +4044,8 @@
       <c r="U47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>34</v>
+      <c r="V47" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48">
@@ -4059,22 +4059,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>29</v>
@@ -4089,10 +4089,10 @@
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O48" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>32</v>
@@ -4127,22 +4127,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
@@ -4157,10 +4157,10 @@
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>32</v>
@@ -4195,22 +4195,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>29</v>
@@ -4228,7 +4228,7 @@
         <v>32</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>32</v>
@@ -4248,8 +4248,8 @@
       <c r="U50" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V50" s="1" t="s">
-        <v>34</v>
+      <c r="V50" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -4263,22 +4263,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>29</v>
@@ -4296,7 +4296,7 @@
         <v>32</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>32</v>
@@ -4316,8 +4316,8 @@
       <c r="U51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V51" s="1" t="s">
-        <v>34</v>
+      <c r="V51" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="52">
@@ -4331,23 +4331,23 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="H52" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="I52" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="J52" s="2" t="s">
         <v>29</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>32</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>32</v>
@@ -4384,8 +4384,8 @@
       <c r="U52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V52" s="1" t="s">
-        <v>34</v>
+      <c r="V52" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -4402,19 +4402,19 @@
         <v>135</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>29</v>
@@ -4452,8 +4452,8 @@
       <c r="U53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V53" s="1" t="s">
-        <v>34</v>
+      <c r="V53" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -4470,20 +4470,20 @@
         <v>136</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="I54" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="J54" s="2" t="s">
         <v>29</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>32</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>32</v>
@@ -4520,8 +4520,8 @@
       <c r="U54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V54" s="1" t="s">
-        <v>34</v>
+      <c r="V54" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="55">
@@ -4538,20 +4538,20 @@
         <v>137</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="J55" s="2" t="s">
         <v>29</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>32</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>32</v>
@@ -4588,8 +4588,8 @@
       <c r="U55" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="V55" s="1" t="s">
-        <v>34</v>
+      <c r="V55" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="56">
@@ -4609,16 +4609,16 @@
         <v>36</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>29</v>
@@ -4671,22 +4671,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>29</v>
@@ -4739,22 +4739,22 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>29</v>
@@ -4772,7 +4772,7 @@
         <v>32</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>32</v>
@@ -4787,149 +4787,13 @@
         <v>32</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="V58" s="2" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K59" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U59" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U60" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V60" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BHS.xlsx
+++ b/Excel-XLSX/UN-BHS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,12 +90,282 @@
     <t>xeU9S4</t>
   </si>
   <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>HAI</t>
+  </si>
+  <si>
+    <t>HTI</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>BHS</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>980</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>CUB</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>LKA</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>CHN</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>COL</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>RSA</t>
+  </si>
+  <si>
+    <t>ZAF</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>2020</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Cambodia</t>
   </si>
   <si>
@@ -105,361 +375,112 @@
     <t>KHM</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>BHS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CMR</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>3</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>723</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>UGA</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CHI</t>
-  </si>
-  <si>
-    <t>CHN</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CMR</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>CUB</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>723</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>HAI</t>
-  </si>
-  <si>
-    <t>HTI</t>
-  </si>
-  <si>
-    <t>374</t>
-  </si>
-  <si>
-    <t>980</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>363</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>JAM</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>LKA</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>RSA</t>
-  </si>
-  <si>
-    <t>ZAF</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>54</t>
   </si>
   <si>
     <t>55</t>
   </si>
   <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>UGA</t>
-  </si>
-  <si>
     <t>56</t>
   </si>
   <si>
     <t>57</t>
   </si>
   <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>VEN</t>
   </si>
 </sst>
 </file>
@@ -844,7 +865,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -967,25 +988,25 @@
         <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -999,10 +1020,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1029,31 +1050,31 @@
         <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -1067,22 +1088,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -1097,31 +1118,31 @@
         <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -1135,19 +1156,19 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>44</v>
@@ -1165,31 +1186,31 @@
         <v>31</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1203,19 +1224,19 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>44</v>
@@ -1233,31 +1254,31 @@
         <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1271,22 +1292,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1301,31 +1322,31 @@
         <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1339,22 +1360,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1369,31 +1390,31 @@
         <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1407,22 +1428,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1437,31 +1458,31 @@
         <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1475,22 +1496,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1505,31 +1526,31 @@
         <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1543,22 +1564,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1576,28 +1597,28 @@
         <v>33</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1611,61 +1632,61 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="O12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1682,19 +1703,19 @@
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1709,31 +1730,31 @@
         <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1747,22 +1768,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1777,31 +1798,31 @@
         <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1815,61 +1836,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="O15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1883,22 +1904,22 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1913,31 +1934,31 @@
         <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1951,22 +1972,22 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -1981,31 +2002,31 @@
         <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -2019,22 +2040,22 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>29</v>
@@ -2049,31 +2070,31 @@
         <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -2087,22 +2108,22 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>29</v>
@@ -2117,31 +2138,31 @@
         <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -2155,22 +2176,22 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>29</v>
@@ -2185,31 +2206,31 @@
         <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
@@ -2223,22 +2244,22 @@
         <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>29</v>
@@ -2253,31 +2274,31 @@
         <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
@@ -2294,19 +2315,19 @@
         <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>29</v>
@@ -2321,31 +2342,31 @@
         <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
@@ -2359,22 +2380,22 @@
         <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>29</v>
@@ -2389,31 +2410,31 @@
         <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="U23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2427,61 +2448,61 @@
         <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="P24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -2495,22 +2516,22 @@
         <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>29</v>
@@ -2525,31 +2546,31 @@
         <v>31</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
@@ -2563,61 +2584,61 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="U26" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -2631,22 +2652,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>29</v>
@@ -2661,31 +2682,31 @@
         <v>31</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -2699,22 +2720,22 @@
         <v>22</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>29</v>
@@ -2732,28 +2753,28 @@
         <v>33</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -2770,58 +2791,58 @@
         <v>97</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="P29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -2835,22 +2856,22 @@
         <v>22</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>29</v>
@@ -2865,31 +2886,31 @@
         <v>31</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -2906,19 +2927,19 @@
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>29</v>
@@ -2933,31 +2954,31 @@
         <v>31</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32">
@@ -2971,22 +2992,22 @@
         <v>22</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>29</v>
@@ -3001,31 +3022,31 @@
         <v>31</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33">
@@ -3039,22 +3060,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>29</v>
@@ -3069,31 +3090,31 @@
         <v>31</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
@@ -3107,22 +3128,22 @@
         <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>29</v>
@@ -3137,31 +3158,31 @@
         <v>31</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35">
@@ -3175,22 +3196,22 @@
         <v>22</v>
       </c>
       <c r="D35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="F35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>29</v>
@@ -3205,31 +3226,31 @@
         <v>31</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -3246,19 +3267,19 @@
         <v>114</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>29</v>
@@ -3273,31 +3294,31 @@
         <v>31</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37">
@@ -3311,22 +3332,22 @@
         <v>22</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>29</v>
@@ -3341,31 +3362,31 @@
         <v>31</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38">
@@ -3379,22 +3400,22 @@
         <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>29</v>
@@ -3409,31 +3430,31 @@
         <v>31</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39">
@@ -3447,22 +3468,22 @@
         <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="I39" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>29</v>
@@ -3477,31 +3498,31 @@
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40">
@@ -3515,22 +3536,22 @@
         <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>29</v>
@@ -3545,31 +3566,31 @@
         <v>31</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41">
@@ -3583,22 +3604,22 @@
         <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>29</v>
@@ -3613,31 +3634,31 @@
         <v>31</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U41" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -3651,22 +3672,22 @@
         <v>22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>29</v>
@@ -3681,31 +3702,31 @@
         <v>31</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43">
@@ -3719,22 +3740,22 @@
         <v>22</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>29</v>
@@ -3749,31 +3770,31 @@
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -3787,22 +3808,22 @@
         <v>22</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>29</v>
@@ -3817,31 +3838,31 @@
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45">
@@ -3855,22 +3876,22 @@
         <v>22</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>29</v>
@@ -3885,31 +3906,31 @@
         <v>31</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46">
@@ -3923,22 +3944,22 @@
         <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>29</v>
@@ -3956,28 +3977,28 @@
         <v>33</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
@@ -3991,22 +4012,22 @@
         <v>22</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>29</v>
@@ -4024,28 +4045,28 @@
         <v>33</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48">
@@ -4059,22 +4080,22 @@
         <v>22</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>29</v>
@@ -4089,31 +4110,31 @@
         <v>31</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
@@ -4127,22 +4148,22 @@
         <v>22</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>29</v>
@@ -4157,31 +4178,31 @@
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50">
@@ -4195,22 +4216,22 @@
         <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>29</v>
@@ -4225,31 +4246,31 @@
         <v>31</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51">
@@ -4263,22 +4284,22 @@
         <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>29</v>
@@ -4293,31 +4314,31 @@
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U51" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52">
@@ -4331,22 +4352,22 @@
         <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>29</v>
@@ -4361,31 +4382,31 @@
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53">
@@ -4399,22 +4420,22 @@
         <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>29</v>
@@ -4429,31 +4450,31 @@
         <v>31</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -4467,22 +4488,22 @@
         <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>29</v>
@@ -4497,31 +4518,31 @@
         <v>31</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -4535,22 +4556,22 @@
         <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>129</v>
+        <v>42</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>29</v>
@@ -4565,31 +4586,31 @@
         <v>31</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56">
@@ -4603,22 +4624,22 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>29</v>
@@ -4633,31 +4654,31 @@
         <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57">
@@ -4671,22 +4692,22 @@
         <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>29</v>
@@ -4701,31 +4722,31 @@
         <v>31</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58">
@@ -4739,61 +4760,401 @@
         <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O60" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="U58" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>32</v>
+      <c r="P60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-BHS.xlsx
+++ b/Excel-XLSX/UN-BHS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>xeU9S4</t>
+    <t>sW71rO</t>
   </si>
   <si>
     <t>1992</t>
@@ -469,18 +469,6 @@
   </si>
   <si>
     <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>Venezuela (Bolivarian Republic of)</t>
-  </si>
-  <si>
-    <t>VEN</t>
   </si>
 </sst>
 </file>
@@ -865,7 +853,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -4929,7 +4917,7 @@
         <v>49</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>33</v>
@@ -4997,7 +4985,7 @@
         <v>33</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>33</v>
@@ -5086,74 +5074,6 @@
         <v>35</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K63" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U63" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V63" s="2" t="s">
         <v>33</v>
       </c>
     </row>
